--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gdf2-Eng.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gdf2-Eng.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H2">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.87795824038</v>
+        <v>114.155417</v>
       </c>
       <c r="N2">
-        <v>40.87795824038</v>
+        <v>342.466251</v>
       </c>
       <c r="O2">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="P2">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="Q2">
-        <v>47.38562205875105</v>
+        <v>141.573150899643</v>
       </c>
       <c r="R2">
-        <v>47.38562205875105</v>
+        <v>1274.158358096787</v>
       </c>
       <c r="S2">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="T2">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H3">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.9153102435356</v>
+        <v>35.924535</v>
       </c>
       <c r="N3">
-        <v>35.9153102435356</v>
+        <v>107.773605</v>
       </c>
       <c r="O3">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="P3">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="Q3">
-        <v>41.63293350698299</v>
+        <v>44.552853891765</v>
       </c>
       <c r="R3">
-        <v>41.63293350698299</v>
+        <v>400.975685025885</v>
       </c>
       <c r="S3">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="T3">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H4">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8286199930255</v>
+        <v>16.93339666666667</v>
       </c>
       <c r="N4">
-        <v>16.8286199930255</v>
+        <v>50.80019</v>
       </c>
       <c r="O4">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="P4">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="Q4">
-        <v>19.50769219124373</v>
+        <v>21.00044294467</v>
       </c>
       <c r="R4">
-        <v>19.50769219124373</v>
+        <v>189.00398650203</v>
       </c>
       <c r="S4">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="T4">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
     </row>
   </sheetData>
